--- a/biology/Botanique/Classification_APG_III/Classification_APG_III.xlsx
+++ b/biology/Botanique/Classification_APG_III/Classification_APG_III.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification APG III (2009) est la troisième version de la classification botanique phylogénétique des angiospermes établie par l'Angiosperm Phylogeny Group. C'est une révision et une mise à jour des familles de plantes à fleurs de la classification phylogénétique APG II (2003)[1], de nouveau mise à jour avec la classification phylogénétique APG IV (2016)[2][pas clair].
-Comme la classification phylogénétique APG (1998)[3] et la classification phylogénétique APG II (2003)[1], cette classification est construite à la base de deux gènes chloroplastiques et un gène nucléaire de ribosome, mais ces données sont complétées dans quelques cas par d'autres données.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification APG III (2009) est la troisième version de la classification botanique phylogénétique des angiospermes établie par l'Angiosperm Phylogeny Group. C'est une révision et une mise à jour des familles de plantes à fleurs de la classification phylogénétique APG II (2003), de nouveau mise à jour avec la classification phylogénétique APG IV (2016)[pas clair].
+Comme la classification phylogénétique APG (1998) et la classification phylogénétique APG II (2003), cette classification est construite à la base de deux gènes chloroplastiques et un gène nucléaire de ribosome, mais ces données sont complétées dans quelques cas par d'autres données.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Classification résumée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La classification est organisée en 13 clades et 59 ordres :
 clade des Angiospermes
@@ -622,16 +636,53 @@
           <t>Classification détaillée (avec toutes les familles)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Légende:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Légende:
 † = nouvel ordre (apparu depuis la classification APGII);
 * = nouvel emplacement pour cette famille (changé depuis la classification APGII);
 § = famille de nouvelle définition, nouveau périmètre (contenu ayant changé) (voir texte de APGII).
 $ familles qui représentent parmi les options disponibles dans APG II le périmètre le plus vaste, et préféré ici,
 $$ familles qui avaient été placées entre crochets dans APG II, ces périmètres plus étroits étant préférés ici.
-Angiospermes
-La classification décrit 59 ordres et 413 familles dont 2 ont une position incertaine, 3 genres n'étant encore classés dans aucune famille :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification détaillée (avec toutes les familles)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La classification décrit 59 ordres et 413 familles dont 2 ont une position incertaine, 3 genres n'étant encore classés dans aucune famille :
 †Amborellales Melikyan, A.V.Bobrov &amp; Zaytzeva (1999)
 Amborellaceae Pichon (1948)
 †Nymphaeales Salisb. ex Bercht. &amp; J.Presl (1820)
@@ -643,9 +694,47 @@
 $Schisandraceae Blume (1830) (incluant Illiciaceae A.C.Sm.)
 Trimeniaceae L.S.Gibbs (1917)
 †Chloranthales R.Br. (1835)
-Chloranthaceae R.Br. ex Sims (1820)
-Magnoliidées (anglais "magnoliids")
-Canellales Cronquist (1957)
+Chloranthaceae R.Br. ex Sims (1820)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification détaillée (avec toutes les familles)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Magnoliidées (anglais "magnoliids")</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Canellales Cronquist (1957)
 Canellaceae Mart. (1832)
 Winteraceae R.Br. ex Lindl. (1830)
 Piperales Bercht. &amp; J.Presl (1820)
@@ -668,9 +757,47 @@
 Eupomatiaceae Orb. (1845)
 Himantandraceae Diels (1917)
 Magnoliaceae Juss. (1789)
-Myristicaceae R.Br. (1810)
-Monocotylédones (anglais "monocots")
-Acorales Link (1835)
+Myristicaceae R.Br. (1810)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification détaillée (avec toutes les familles)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Monocotylédones (anglais "monocots")</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Acorales Link (1835)
 Acoraceae Martinov (1820)
 Alismatales R.Br. ex Bercht. &amp; J.Presl (1820)
 §Alismataceae Vent. (1799) (incluant Limnocharitaceae Takht. ex Cronquist)
@@ -759,12 +886,88 @@
 Marantaceae R.Br. (1814)
 Musaceae Juss. (1789)
 Strelitziaceae Hutch. (1934)
-Zingiberaceae Martinov (1820)
-Clade probable frère de Dicotylédones vraies
-Ceratophyllales Link (1829)
-Ceratophyllaceae Gray (1822)
-Dicotylédones vraies ou Eudicotylédones (anglais "eudicots")
-Ranunculales Juss. ex Bercht. &amp; J.Presl (1820)
+Zingiberaceae Martinov (1820)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification détaillée (avec toutes les familles)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Clade probable frère de Dicotylédones vraies</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Ceratophyllales Link (1829)
+Ceratophyllaceae Gray (1822)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification détaillée (avec toutes les familles)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Dicotylédones vraies ou Eudicotylédones (anglais "eudicots")</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ranunculales Juss. ex Bercht. &amp; J.Presl (1820)
 Berberidaceae Juss. (1789)
 $Circaeasteraceae Hutch. (1926) (incluant Kingdoniaceae Airy Shaw)
 Eupteleaceae K.Wilh. (1910)
@@ -1113,9 +1316,47 @@
 Myodocarpaceae Doweld (2001)
 Pennantiaceae J.Agardh (1858)
 Pittosporaceae R.Br. (1814)
-§Torricelliaceae Hu (1934) (incluant Aralidiaceae Philipson &amp; B.C.Stone, Melanophyllaceae Takht. ex Airy Shaw)
-Taxons de position incertaine
-Familles
+§Torricelliaceae Hu (1934) (incluant Aralidiaceae Philipson &amp; B.C.Stone, Melanophyllaceae Takht. ex Airy Shaw)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_APG_III</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Classification détaillée (avec toutes les familles)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Angiospermes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Taxons de position incertaine</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Familles
 Apodanthaceae Takhtajan [trois genres]
 Cynomoriaceae Endl. ex Lindl. (1833)
 Genres
@@ -1125,36 +1366,38 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Classification_APG_III</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_APG_III</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>APG III selon Mark W. Chase et James L. Reveal 2009</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2009, alors que l'Angiosperm Phylogeny Group publie APG III, deux des membres de l'APG, Mark W. Chase et James L. Reveal, publient « A phylogenetic classification of the land plants to accompany APG III »[4]. Dans ce document, ils expliquent que APG III est une classification non terminée, proposant des clades (magnoliids, monocots, lamiids) avec des noms informels et sans rang taxinomique. Avec ce document, ils font une proposition de nommage de certains de ces clades et une réorganisation, légère, en rangs taxinomiques.
-Cette classification est suivie sur internet par les bases de données taxinomiques Tropicos[5], Taxref (INPN)[6] et The Taxonomicon[7].
-Il n'y a pas de document équivalent pour la classification phylogénétique APG IV (2016)[2] car ses modifications par rapport à APG III restent applicables à la classification de Chase et Reveal[2].
-Selon Chase et Reveal[4], d'après la classification phylogénétique APG III (2009)[8], applicable à la classification phylogénétique APG IV (2016)[2] :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2009, alors que l'Angiosperm Phylogeny Group publie APG III, deux des membres de l'APG, Mark W. Chase et James L. Reveal, publient « A phylogenetic classification of the land plants to accompany APG III ». Dans ce document, ils expliquent que APG III est une classification non terminée, proposant des clades (magnoliids, monocots, lamiids) avec des noms informels et sans rang taxinomique. Avec ce document, ils font une proposition de nommage de certains de ces clades et une réorganisation, légère, en rangs taxinomiques.
+Cette classification est suivie sur internet par les bases de données taxinomiques Tropicos, Taxref (INPN) et The Taxonomicon.
+Il n'y a pas de document équivalent pour la classification phylogénétique APG IV (2016) car ses modifications par rapport à APG III restent applicables à la classification de Chase et Reveal.
+Selon Chase et Reveal, d'après la classification phylogénétique APG III (2009), applicable à la classification phylogénétique APG IV (2016) :
 (angiospermes) sous-classe des Magnoliidae Novák ex Takht., 1967
 super-ordre des Amborellanae M.W.Chase &amp; Reveal, 1948
 super-ordre des Nymphaeanae Thorne ex Reveal, 1992
@@ -1242,31 +1485,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Classification_APG_III</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Classification_APG_III</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Anciennes familles non reconnues par APGIII</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agapanthaceae
